--- a/INTLINE/data/193/ABS/634501.xlsx
+++ b/INTLINE/data/193/ABS/634501.xlsx
@@ -12,89 +12,89 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$108</definedName>
-    <definedName name="A2603039T_Data">Data1!$B$11:$B$108</definedName>
-    <definedName name="A2603039T_Latest">Data1!$B$108</definedName>
-    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$108</definedName>
-    <definedName name="A2603040A_Data">Data1!$K$11:$K$108</definedName>
-    <definedName name="A2603040A_Latest">Data1!$K$108</definedName>
-    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603041C_Data">Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603041C_Latest">Data1!$T$108</definedName>
-    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$108</definedName>
-    <definedName name="A2603609J_Data">Data1!$D$11:$D$108</definedName>
-    <definedName name="A2603609J_Latest">Data1!$D$108</definedName>
-    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$108</definedName>
-    <definedName name="A2603610T_Data">Data1!$M$11:$M$108</definedName>
-    <definedName name="A2603610T_Latest">Data1!$M$108</definedName>
-    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603611V_Data">Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603611V_Latest">Data1!$V$108</definedName>
-    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$108</definedName>
-    <definedName name="A2603989W_Data">Data1!$C$11:$C$108</definedName>
-    <definedName name="A2603989W_Latest">Data1!$C$108</definedName>
-    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603990F_Data">Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603990F_Latest">Data1!$L$108</definedName>
-    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603991J_Data">Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603991J_Latest">Data1!$U$108</definedName>
-    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$108</definedName>
-    <definedName name="A2713846W_Data">Data1!$E$11:$E$108</definedName>
-    <definedName name="A2713846W_Latest">Data1!$E$108</definedName>
-    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$108</definedName>
-    <definedName name="A2713848A_Data">Data1!$H$11:$H$108</definedName>
-    <definedName name="A2713848A_Latest">Data1!$H$108</definedName>
-    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$108</definedName>
-    <definedName name="A2713849C_Data">Data1!$G$11:$G$108</definedName>
-    <definedName name="A2713849C_Latest">Data1!$G$108</definedName>
-    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$108</definedName>
-    <definedName name="A2713851R_Data">Data1!$J$11:$J$108</definedName>
-    <definedName name="A2713851R_Latest">Data1!$J$108</definedName>
-    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$108</definedName>
-    <definedName name="A2713852T_Data">Data1!$F$11:$F$108</definedName>
-    <definedName name="A2713852T_Latest">Data1!$F$108</definedName>
-    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$108</definedName>
-    <definedName name="A2713854W_Data">Data1!$I$11:$I$108</definedName>
-    <definedName name="A2713854W_Latest">Data1!$I$108</definedName>
-    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$108</definedName>
-    <definedName name="A83895308K_Data">Data1!$N$11:$N$108</definedName>
-    <definedName name="A83895308K_Latest">Data1!$N$108</definedName>
-    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$108</definedName>
-    <definedName name="A83895309L_Data">Data1!$W$11:$W$108</definedName>
-    <definedName name="A83895309L_Latest">Data1!$W$108</definedName>
-    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A83895311X_Latest">Data1!$Q$108</definedName>
-    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A83895312A_Latest">Data1!$Z$108</definedName>
-    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$108</definedName>
-    <definedName name="A83895332K_Data">Data1!$O$11:$O$108</definedName>
-    <definedName name="A83895332K_Latest">Data1!$O$108</definedName>
-    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$108</definedName>
-    <definedName name="A83895333L_Data">Data1!$X$11:$X$108</definedName>
-    <definedName name="A83895333L_Latest">Data1!$X$108</definedName>
-    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$108</definedName>
-    <definedName name="A83895335T_Data">Data1!$R$11:$R$108</definedName>
-    <definedName name="A83895335T_Latest">Data1!$R$108</definedName>
-    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A83895336V_Latest">Data1!$AA$108</definedName>
-    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$108</definedName>
-    <definedName name="A83895395V_Data">Data1!$P$11:$P$108</definedName>
-    <definedName name="A83895395V_Latest">Data1!$P$108</definedName>
-    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A83895396W_Latest">Data1!$Y$108</definedName>
-    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$108</definedName>
-    <definedName name="A83895398A_Data">Data1!$S$11:$S$108</definedName>
-    <definedName name="A83895398A_Latest">Data1!$S$108</definedName>
-    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A83895399C_Latest">Data1!$AB$108</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$108</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$108</definedName>
+    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$109</definedName>
+    <definedName name="A2603039T_Data">Data1!$B$11:$B$109</definedName>
+    <definedName name="A2603039T_Latest">Data1!$B$109</definedName>
+    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$109</definedName>
+    <definedName name="A2603040A_Data">Data1!$K$11:$K$109</definedName>
+    <definedName name="A2603040A_Latest">Data1!$K$109</definedName>
+    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603041C_Data">Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603041C_Latest">Data1!$T$109</definedName>
+    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$109</definedName>
+    <definedName name="A2603609J_Data">Data1!$D$11:$D$109</definedName>
+    <definedName name="A2603609J_Latest">Data1!$D$109</definedName>
+    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$109</definedName>
+    <definedName name="A2603610T_Data">Data1!$M$11:$M$109</definedName>
+    <definedName name="A2603610T_Latest">Data1!$M$109</definedName>
+    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603611V_Data">Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603611V_Latest">Data1!$V$109</definedName>
+    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$109</definedName>
+    <definedName name="A2603989W_Data">Data1!$C$11:$C$109</definedName>
+    <definedName name="A2603989W_Latest">Data1!$C$109</definedName>
+    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603990F_Data">Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603990F_Latest">Data1!$L$109</definedName>
+    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603991J_Data">Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603991J_Latest">Data1!$U$109</definedName>
+    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$109</definedName>
+    <definedName name="A2713846W_Data">Data1!$E$11:$E$109</definedName>
+    <definedName name="A2713846W_Latest">Data1!$E$109</definedName>
+    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$109</definedName>
+    <definedName name="A2713848A_Data">Data1!$H$11:$H$109</definedName>
+    <definedName name="A2713848A_Latest">Data1!$H$109</definedName>
+    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$109</definedName>
+    <definedName name="A2713849C_Data">Data1!$G$11:$G$109</definedName>
+    <definedName name="A2713849C_Latest">Data1!$G$109</definedName>
+    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$109</definedName>
+    <definedName name="A2713851R_Data">Data1!$J$11:$J$109</definedName>
+    <definedName name="A2713851R_Latest">Data1!$J$109</definedName>
+    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$109</definedName>
+    <definedName name="A2713852T_Data">Data1!$F$11:$F$109</definedName>
+    <definedName name="A2713852T_Latest">Data1!$F$109</definedName>
+    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$109</definedName>
+    <definedName name="A2713854W_Data">Data1!$I$11:$I$109</definedName>
+    <definedName name="A2713854W_Latest">Data1!$I$109</definedName>
+    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$109</definedName>
+    <definedName name="A83895308K_Data">Data1!$N$11:$N$109</definedName>
+    <definedName name="A83895308K_Latest">Data1!$N$109</definedName>
+    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$109</definedName>
+    <definedName name="A83895309L_Data">Data1!$W$11:$W$109</definedName>
+    <definedName name="A83895309L_Latest">Data1!$W$109</definedName>
+    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A83895311X_Latest">Data1!$Q$109</definedName>
+    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A83895312A_Latest">Data1!$Z$109</definedName>
+    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$109</definedName>
+    <definedName name="A83895332K_Data">Data1!$O$11:$O$109</definedName>
+    <definedName name="A83895332K_Latest">Data1!$O$109</definedName>
+    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$109</definedName>
+    <definedName name="A83895333L_Data">Data1!$X$11:$X$109</definedName>
+    <definedName name="A83895333L_Latest">Data1!$X$109</definedName>
+    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$109</definedName>
+    <definedName name="A83895335T_Data">Data1!$R$11:$R$109</definedName>
+    <definedName name="A83895335T_Latest">Data1!$R$109</definedName>
+    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A83895336V_Latest">Data1!$AA$109</definedName>
+    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$109</definedName>
+    <definedName name="A83895395V_Data">Data1!$P$11:$P$109</definedName>
+    <definedName name="A83895395V_Latest">Data1!$P$109</definedName>
+    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A83895396W_Latest">Data1!$Y$109</definedName>
+    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$109</definedName>
+    <definedName name="A83895398A_Data">Data1!$S$11:$S$109</definedName>
+    <definedName name="A83895398A_Latest">Data1!$S$109</definedName>
+    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A83895399C_Latest">Data1!$AB$109</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$109</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1770,6 +1770,123 @@
       </text>
     </comment>
     <comment ref="AB108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2699,10 +2816,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -2731,10 +2848,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -2763,10 +2880,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -2795,10 +2912,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -2827,10 +2944,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
@@ -2859,10 +2976,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
@@ -2891,10 +3008,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
@@ -2923,10 +3040,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
@@ -2955,10 +3072,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
@@ -2987,10 +3104,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>39</v>
@@ -3019,10 +3136,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>39</v>
@@ -3051,10 +3168,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>39</v>
@@ -3083,10 +3200,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>39</v>
@@ -3115,10 +3232,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>39</v>
@@ -3147,10 +3264,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>39</v>
@@ -3179,10 +3296,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>39</v>
@@ -3211,10 +3328,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>39</v>
@@ -3243,10 +3360,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>39</v>
@@ -3275,10 +3392,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>39</v>
@@ -3307,10 +3424,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>39</v>
@@ -3339,10 +3456,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>39</v>
@@ -3371,10 +3488,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>39</v>
@@ -3403,10 +3520,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>39</v>
@@ -3435,10 +3552,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>39</v>
@@ -3467,10 +3584,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>39</v>
@@ -3499,10 +3616,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>39</v>
@@ -3531,10 +3648,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -3596,7 +3713,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4214,85 +4331,85 @@
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4300,85 +4417,85 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -12678,6 +12795,74 @@
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B109" s="8">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C109" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="D109" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="E109" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="F109" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="G109" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="M109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="N109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="U109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="W109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="X109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
